--- a/docs/Materiales por estructura.xlsx
+++ b/docs/Materiales por estructura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfala\workspace\meteor\cgprojects\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfala\workspace\meteor\proyelec.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Materiales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1075,9 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1568,7 +1566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:C124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1598,6 +1598,10 @@
       <c r="B2" t="s">
         <v>163</v>
       </c>
+      <c r="C2" t="str">
+        <f>"Materials.insert({'nombre': '"&amp;A2&amp;"', 'file': '"&amp;B2&amp;"'})"</f>
+        <v>Materials.insert({'nombre': 'Abrazadera con escote Ø120mm c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1610,6 +1614,10 @@
       <c r="B3" t="s">
         <v>163</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">"Materials.insert({'nombre': '"&amp;A3&amp;"', 'file': '"&amp;B3&amp;"'})"</f>
+        <v>Materials.insert({'nombre': 'Abrazadera con escote Ø140mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1622,6 +1630,10 @@
       <c r="B4" t="s">
         <v>163</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera con escote Ø160mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1630,6 +1642,10 @@
       <c r="B5" t="s">
         <v>163</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera con escote Ø180mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1638,6 +1654,10 @@
       <c r="B6" t="s">
         <v>163</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera con escote Ø210mm  c/bulón 1/2"', 'file': 'Abrazaderas con escote'})</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1646,6 +1666,10 @@
       <c r="B7" t="s">
         <v>162</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø210mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1654,6 +1678,10 @@
       <c r="B8" t="s">
         <v>162</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251a Ø171mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1662,6 +1690,10 @@
       <c r="B9" t="s">
         <v>162</v>
       </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251b Ø185mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1670,6 +1702,10 @@
       <c r="B10" t="s">
         <v>162</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251 Ø235mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1678,6 +1714,10 @@
       <c r="B11" t="s">
         <v>162</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Abrazadera Lisa MN251d Ø315mm c/bulón 1/2"', 'file': 'Abrasaderas lisas'})</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1686,6 +1726,10 @@
       <c r="B12" t="s">
         <v>164</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Estribo simple corto', 'file': 'Estribos'})</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1694,6 +1738,10 @@
       <c r="B13" t="s">
         <v>164</v>
       </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Estribo doble corto', 'file': 'Estribos'})</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1702,6 +1750,10 @@
       <c r="B14" t="s">
         <v>164</v>
       </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Estribo simple largo', 'file': 'Estribos'})</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1710,6 +1762,10 @@
       <c r="B15" t="s">
         <v>164</v>
       </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Estribo doble largo', 'file': 'Estribos'})</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1718,869 +1774,1305 @@
       <c r="B16" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Prolongación MH recta 90° 160mm', 'file': 'Prolongaciones'})</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Prolongación MH recta 0° 200mm', 'file': 'Prolongaciones'})</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Péndulo 80mm sep L=220m', 'file': 'Pendulos'})</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Péndulo 100mm sep L=270m', 'file': 'Pendulos'})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Péndulo 80mm sep L=260m', 'file': 'Pendulos'})</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Arandela Grower MN32a 22mm x 1/2"', 'file': 'Arandelas Grower'})</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Arandela Grower MN32b 26,4mm x 5/8"', 'file': 'Arandelas Grower'})</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Arandela Grower MN32c 31,5mm x 3/4"', 'file': 'Arandelas Grower'})</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Arandela Plana MN30 32mm x 1/2"', 'file': 'Arandelas planas'})</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Arandela Plana MN31 40mm x 5/8"', 'file': 'Arandelas planas'})</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Recto MN40 1016mm', 'file': 'Brazos rectos'})</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Recto MN41 710mm', 'file': 'Brazos rectos'})</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Diagonal MN42 1500mm x 1/2"', 'file': 'Brazo diagonal'})</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Diagonal MN42a 1500mm x 18mm', 'file': 'Brazo diagonal'})</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Doble MN43 1500mm x 1/2"', 'file': 'Brazo Doble'})</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Doble MN43a 1500mm x 18mm', 'file': 'Brazo Doble'})</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Soporte MN44 1400mm x 1/2"', 'file': 'Brazo Soporte'})</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
       <c r="B33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Brazo Soporte MN44a 1400mm x 18mm', 'file': 'Brazo Soporte'})</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN48 1/2" x 38mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN48a 3/8" x 25mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN49 1/2" x 127mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN50 1/2" x 178mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN51 1/2" x 203mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN52 1/2" x 254mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN53 5/8" x 203mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN54 5/8" x 254mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN55 5/8" x 305mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
       <c r="B43" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN56 5/8" x 356mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN57 5/8" x 406mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN58 5/8" x 457mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN59 1/2" x 64mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN59a 1/2" x 70mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN60 1/2" x 89mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
       <c r="B49" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN61 3/4" x 356mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
       <c r="B50" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN62 3/4" x 406mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
       <c r="B51" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN63 3/4" x 457mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN64 5/8" x 89mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN64a 5/8" x 110mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Bulón MN66 5/8" x 152mm', 'file': 'Bulones'})</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Chapa Freno MN88 Ø14mm', 'file': 'Chapa Freno'})</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Chapa Freno MN88a Ø17mm', 'file': 'Chapa Freno'})</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Chapa Freno MN88b Ø20mm', 'file': 'Chapa Freno'})</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Chapa Cuadrada MN84 50mm x 20mm', 'file': 'Chapa Cuadrada'})</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Chapa Cuadrada MN83 75mm x 28mm', 'file': 'Chapa Cuadrada'})</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Ojal Badajo MN382', 'file': 'Ojal Badajo'})</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Anillo Badajo MN384', 'file': 'Anillo Badajo'})</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
       <c r="B62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Orbita Ojal MN154', 'file': 'Orbita Ojal'})</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Orbita Anillo J0', 'file': 'Orbita anillo'})</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Cruceta Canadiense 13,2kV', 'file': 'Cruceta Canadiense 13kV'})</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
       <c r="B65" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Cruceta Canadiense 33kV', 'file': 'Cruceta Canadiense 13kV'})</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>Materials.insert({'nombre': 'Cruceta Y 13,2kV', 'file': 'Cruceta Y 13kV'})</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
       <c r="B67" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C124" si="1">"Materials.insert({'nombre': '"&amp;A67&amp;"', 'file': '"&amp;B67&amp;"'})"</f>
+        <v>Materials.insert({'nombre': 'Cruceta Y 33kV', 'file': 'Cruceta Y 13kV'})</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>105</v>
       </c>
       <c r="B68" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Cruceta central MN107 3000mm', 'file': 'Cruceta MN107'})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Cruceta central MN110 1820mm', 'file': 'Cruceta MN110'})</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Cruceta central MN111 2440mm', 'file': 'Cruceta MN111'})</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Cruceta central MN109 1820mm', 'file': 'Cruceta MN109'})</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retensión MR3 120-240mm2', 'file': 'Morsa MR3'})</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retensión MR3m 50-185mm2', 'file': 'Morsa MR3m'})</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>111</v>
       </c>
       <c r="B74" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retensión MR4 185-300mm2', 'file': 'Morsa MR4'})</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retensión MR13 35-120mm2', 'file': 'Morsa MR13'})</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
       <c r="B76" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retensión MR14 16-50mm2', 'file': 'Morsa MR14'})</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Suspensión MS1 16-150mm2', 'file': 'Morsa MS1'})</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
       <c r="B78" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Bifilar Al MPM1 6/50mm2', 'file': 'Morseto bifilar'})</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
       <c r="B79" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Bifilar Bimetalico MPB1 6/50mm2', 'file': 'Morseto bifilar'})</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Bifilar Al MPM2 16/95mm2', 'file': 'Morseto bifilar 2'})</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>118</v>
       </c>
       <c r="B81" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Bifilar Bimetalico MPB2 16/95mm2', 'file': 'Morseto bifilar 2'})</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>119</v>
       </c>
       <c r="B82" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Peine p/CU 25-70mm2', 'file': 'Morseto Peine'})</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>120</v>
       </c>
       <c r="B83" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morseto Peine p/CU 35-120mm2', 'file': 'Morseto Peine'})</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>121</v>
       </c>
       <c r="B84" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Perno MN411CR 360mm', 'file': 'Perno MN411CR'})</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Perno MN411b 300m', 'file': 'Perno MN411'})</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>123</v>
       </c>
       <c r="B86" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Perno MN411 260mm', 'file': 'Perno MN411'})</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Perno MN414', 'file': 'Perno MN414'})</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>126</v>
       </c>
       <c r="B88" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Mensula de Retención PKR20 Curva', 'file': 'Mensula PKR20 Curva'})</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Mensula de Retención PKR20 Recta', 'file': 'Mensula PKR20 Recta'})</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Mensula de Suspensión PKS30 Curva', 'file': 'Mensula PKS30 Curva'})</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>128</v>
       </c>
       <c r="B91" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Mensula de Suspensión PKS30 Recta', 'file': 'Mensula PKS30 Recta'})</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
       <c r="B92" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retención PRA1000 25-70mm2', 'file': 'Morsa PRA1000'})</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>131</v>
       </c>
       <c r="B93" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Retención PRA1500 35-70mm2', 'file': 'Morsa PRA1500'})</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>130</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa Acometida PKD20 4-25mm2', 'file': 'Morsa PKD20'})</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa H°G° RG3 c/ojal 25-50mm2', 'file': 'Morsa RG3'})</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>133</v>
       </c>
       <c r="B96" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa H°G° RG4 c/ojal 70-95mm2', 'file': 'Morsa RG4'})</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa H°G° SG1 c/ojal 22-50mm2', 'file': 'Morsa SG1'})</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Morsa H°G° SG1a c/ojal 70-95mm2', 'file': 'Morsa SG1'})</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Conector PAT', 'file': 'Conector PAT'})</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>137</v>
       </c>
       <c r="B100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Chapa NC3', 'file': 'Chapa NC3'})</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Bloquete MN1101a Acero 50mm', 'file': 'Bloquete'})</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Bloquete MN1101b Latón 50mm', 'file': 'Bloquete'})</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>141</v>
       </c>
       <c r="B103" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Bloquete MN1101c Latón 80mm', 'file': 'Bloquete'})</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>142</v>
       </c>
       <c r="B104" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Base H°G° para abulonar', 'file': 'Base HG para abulonar'})</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Base H°G° para empotrar', 'file': 'Base HG para empotrar'})</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>144</v>
       </c>
       <c r="B106" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Base H°G° para madera', 'file': 'Base HG para madera'})</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>145</v>
       </c>
       <c r="B107" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Jabalina Copperbond 5/8" x 1.5m', 'file': 'Jabalina Acero Cobre Lisas'})</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>146</v>
       </c>
       <c r="B108" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Descargador Polimerico Sobretensión 15kV 10kA', 'file': 'Descargadores sobretensión'})</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>147</v>
       </c>
       <c r="B109" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Descargador Polimerico Sobretensión 36kV 10kA', 'file': 'Descargadores sobretensión'})</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>148</v>
       </c>
       <c r="B110" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador APR 160A', 'file': 'Seccionador BT tipo APR'})</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>149</v>
       </c>
       <c r="B111" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador APR 630A', 'file': 'Seccionador BT tipo APR'})</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>150</v>
       </c>
       <c r="B112" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador fusible tipo XS 15kV', 'file': 'Seccionador Fusible tipo XS'})</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
       <c r="B113" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador fusible tipo XS 36kV', 'file': 'Seccionador Fusible tipo XS'})</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>152</v>
       </c>
       <c r="B114" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador unipolar a cuchilla 15kV', 'file': 'Seccionador unipolar a cuchilla'})</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>153</v>
       </c>
       <c r="B115" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador unipolar a cuchilla 36kV', 'file': 'Seccionador unipolar a cuchilla'})</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>216</v>
       </c>
       <c r="B116" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador a cuchilla Bypass 15kV', 'file': 'Seccionador unipolar a cuchilla bypass'})</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>217</v>
       </c>
       <c r="B117" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Seccionador a cuchilla Bypass 36kV', 'file': 'Seccionador unipolar a cuchilla bypass'})</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>154</v>
       </c>
       <c r="B118" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador MN3a 13,2kV', 'file': 'Aislador MN3a'})</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>155</v>
       </c>
       <c r="B119" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador MN14 33kV', 'file': 'Aislador MN14'})</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>156</v>
       </c>
       <c r="B120" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador MN11 13,2kV', 'file': 'Aislador MN11'})</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>157</v>
       </c>
       <c r="B121" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador MN12 33kV', 'file': 'Aislador MN12'})</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>158</v>
       </c>
       <c r="B122" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador polimerico 13,2kV', 'file': 'Aislador polimérico Suspensión-Retención'})</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>159</v>
       </c>
       <c r="B123" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Aislador polimerico 33kV', 'file': 'Aislador polimérico Suspensión-Retención'})</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>160</v>
       </c>
       <c r="B124" t="s">
         <v>160</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>Materials.insert({'nombre': 'Varillas Preformadas', 'file': 'Varillas Preformadas'})</v>
       </c>
     </row>
   </sheetData>
